--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -3312,216 +3312,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006005DE3BB15B1F42A37724419F3B7D4B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="132a9526b48618856f23c0c7d0ff1f63">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7a91000-6b62-4ba3-a2f5-560f6a3abacc" xmlns:ns3="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f0ddccd601bb7518ab505a170b69bb2" ns2:_="" ns3:_="">
-    <xsd:import namespace="e7a91000-6b62-4ba3-a2f5-560f6a3abacc"/>
-    <xsd:import namespace="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7a91000-6b62-4ba3-a2f5-560f6a3abacc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8aaafb2d-38a4-4338-837a-a1537244f37f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11f23294-6eba-479f-96ee-ba29dc468b90}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6F6B65-B37A-4858-AAE7-5EC974BAFDFF}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F66F5A64-20D9-47ED-8A93-79B7F9974D31}"/>
 </file>
--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>

--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Direcionamento</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Outras Agências</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2188,23 +2188,23 @@
         </is>
       </c>
       <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>12:00-15:00</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>Acima de 15 minutos</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2225,23 +2225,23 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Outras Cooperativas</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Seguros e previdência</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -2788,63 +2788,63 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Negócios</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Outras Carteiras</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cartões</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>10:00-12:00</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>

--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -1417,63 +1417,63 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Direcionamento</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Outras Agências</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Seguros</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>12:00-15:00</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>

--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -3312,4 +3312,216 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006005DE3BB15B1F42A37724419F3B7D4B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="132a9526b48618856f23c0c7d0ff1f63">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7a91000-6b62-4ba3-a2f5-560f6a3abacc" xmlns:ns3="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f0ddccd601bb7518ab505a170b69bb2" ns2:_="" ns3:_="">
+    <xsd:import namespace="e7a91000-6b62-4ba3-a2f5-560f6a3abacc"/>
+    <xsd:import namespace="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7a91000-6b62-4ba3-a2f5-560f6a3abacc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8aaafb2d-38a4-4338-837a-a1537244f37f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11f23294-6eba-479f-96ee-ba29dc468b90}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="65967371-bfe8-4fc3-9f3c-db1bf8f0ae38">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D4727A6-FA75-440A-A1A2-9D9D7E36F7C7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAD48D81-5B71-48BB-9388-C7C62C9C85F2}"/>
 </file>
--- a/files/csv_files/Relatorio.xlsx
+++ b/files/csv_files/Relatorio.xlsx
@@ -7,10 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Erick Amaral" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sandro Sousa dos Anjos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Gabriele Tosti Benitez" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Total" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Luiz Filipe Christ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Silvano Carlos dos Santos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Jean Feiten" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Matheus Lima" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Marcio Costenaro" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Silvano Macedo" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Davi" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Rita Cassia dos Santos" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="IARA JULIANA STAFFEN" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Ketlin Tailini de Oliveira" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Adriano Kogiteskei Rafaelli" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Eliane Correa" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Francieli de Valgas Spica" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +550,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>797</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -548,7 +558,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -556,7 +566,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>747</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -564,7 +574,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>976</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -572,7 +582,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -580,7 +590,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -588,7 +598,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -596,7 +606,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -604,11 +614,11 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Erick Amaral</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -619,7 +629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -627,7 +637,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -635,7 +645,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>534</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -643,7 +653,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -651,7 +661,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -659,7 +669,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -667,7 +677,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -675,7 +685,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -683,7 +693,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -694,7 +704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -702,7 +712,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -710,7 +720,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -718,7 +728,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -726,7 +736,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -734,7 +744,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -742,7 +752,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>479</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -750,7 +760,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -758,7 +768,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -771,7 +781,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -779,7 +789,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -787,7 +797,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -795,7 +805,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -803,7 +813,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -813,7 +823,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -821,7 +831,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -834,7 +844,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -844,7 +854,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -852,7 +862,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -860,7 +870,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -870,7 +880,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -889,7 +899,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -897,7 +907,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -905,7 +915,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -928,7 +938,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -936,7 +946,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -944,7 +954,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -969,7 +979,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -977,7 +987,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1010,7 +1020,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1035,7 +1045,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1043,7 +1053,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1068,7 +1078,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1307</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1103,7 +1113,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1130,7 +1140,3622 @@
         </is>
       </c>
       <c r="L14" t="n">
+        <v>479</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>63</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>IARA JULIANA STAFFEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>33</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>43</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>34</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>72</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>72</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>72</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>72</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>72</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>43</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>107</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>119</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>53</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>35</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>79</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Ketlin Tailini de Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>22</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>65</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>149</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>46</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>149</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>149</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>149</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>149</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>149</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>14</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>46</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>31</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Adriano Kogiteskei Rafaelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>38</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>30</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>70</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>70</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>70</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>30</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>59</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>43</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>44</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Eliane Correa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>23</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>26</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>35</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>84</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>84</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>84</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>84</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>84</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>35</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>15</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Francieli de Valgas Spica</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>23</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>12</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>47</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>47</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>47</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>47</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>47</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>23</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1263,7 +4888,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1271,7 +4896,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1287,7 +4912,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1295,7 +4920,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -1303,7 +4928,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1311,15 +4936,15 @@
         </is>
       </c>
       <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>2</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>08:00-10:00</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1331,7 +4956,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Sandro Sousa dos Anjos</t>
+          <t>Luiz Filipe Christ</t>
         </is>
       </c>
     </row>
@@ -1342,40 +4967,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Negócios</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Outras Carteiras</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cartões</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Canais digitais</t>
@@ -1390,7 +5015,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1398,7 +5023,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -1406,7 +5031,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -1417,7 +5042,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1425,63 +5050,63 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Direcionamento</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Outras Agências</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Seguros</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>12:00-15:00</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>Acima de 15 minutos</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -1494,7 +5119,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1502,7 +5127,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1510,7 +5135,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1518,7 +5143,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1544,7 +5169,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -1557,7 +5182,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1593,7 +5218,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1651,7 +5276,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1659,7 +5284,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1667,7 +5292,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1700,7 +5325,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1758,7 +5383,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1791,7 +5416,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1826,7 +5451,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1853,7 +5478,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1986,47 +5611,47 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>121</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Serviços</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Minha Carteira</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Conta corrente/Poupador</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Cartões</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -2034,7 +5659,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2042,7 +5667,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -2050,11 +5675,11 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Gabriele Tosti Benitez</t>
+          <t>Silvano Carlos dos Santos</t>
         </is>
       </c>
     </row>
@@ -2065,63 +5690,63 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>74</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Negócios</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Outras Carteiras</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cartões</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>10:00-12:00</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -2129,7 +5754,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2140,7 +5765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2148,7 +5773,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2156,7 +5781,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2164,31 +5789,31 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Seguros</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2196,7 +5821,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -2204,7 +5829,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -2217,7 +5842,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2225,7 +5850,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2233,7 +5858,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2241,7 +5866,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2259,7 +5884,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2267,7 +5892,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -2280,7 +5905,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -2290,7 +5915,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2298,7 +5923,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -2306,7 +5931,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -2316,7 +5941,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -2335,7 +5960,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2343,7 +5968,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -2374,7 +5999,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2382,7 +6007,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2390,7 +6015,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -2415,7 +6040,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2423,7 +6048,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -2456,7 +6081,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -2481,7 +6106,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2489,7 +6114,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2514,7 +6139,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2549,7 +6174,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2576,7 +6201,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2709,7 +6334,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2717,7 +6342,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2725,7 +6350,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2733,7 +6358,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2741,7 +6366,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -2749,7 +6374,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -2757,7 +6382,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2765,7 +6390,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -2773,11 +6398,11 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Jean Feiten</t>
         </is>
       </c>
     </row>
@@ -2788,7 +6413,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2796,47 +6421,47 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>97</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>62</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Negócios</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Outras Carteiras</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cartões</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Canais digitais</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2844,7 +6469,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -2852,7 +6477,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
@@ -2863,7 +6488,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2871,7 +6496,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2879,7 +6504,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2887,7 +6512,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2895,7 +6520,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -2903,7 +6528,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -2911,7 +6536,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2919,7 +6544,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -2927,7 +6552,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
@@ -2940,7 +6565,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2948,7 +6573,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2956,7 +6581,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2964,7 +6589,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -2972,7 +6597,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -2982,7 +6607,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2990,7 +6615,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
@@ -3003,7 +6628,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -3013,7 +6638,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3021,7 +6646,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -3029,7 +6654,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -3039,7 +6664,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -3058,23 +6683,23 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>32</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Cobrança</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Poupança programada</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -3097,7 +6722,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3105,7 +6730,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -3113,7 +6738,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -3138,7 +6763,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -3146,7 +6771,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -3179,7 +6804,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -3204,7 +6829,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -3212,7 +6837,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -3237,7 +6862,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -3272,7 +6897,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -3299,7 +6924,3622 @@
         </is>
       </c>
       <c r="L14" t="n">
+        <v>88</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>44</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>27</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Matheus Lima</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>13</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>48</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>48</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>48</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>48</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>15</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>119</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>190</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>172</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>37</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>104</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Marcio Costenaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>97</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>41</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>29</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>80</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>231</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>36</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>51</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>47</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>99</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>231</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>231</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>231</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>231</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>58</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>231</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>231</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>51</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>95</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>48</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Silvano Macedo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>70</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>81</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>29</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>75</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>131</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>131</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>131</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>131</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>28</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>131</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>131</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>50</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>20</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Davi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>21</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>49</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>49</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>49</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>49</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contato</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Canal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Atendimento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Associado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efetivou?</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Horário atendimento</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo médio gasto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Receptivo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serviços</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Minha Carteira</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Conta corrente/Poupador</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>08:00-10:00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Até 5 minutos</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>31</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Rita Cassia dos Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negócios</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Outras Carteiras</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cartões</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Até 15 minutos</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Direcionamento</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Outras Agências</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Canais digitais</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Seguros</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acima de 15 minutos</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>53</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Outras Cooperativas</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Seguros e previdência</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Previdência</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>53</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>53</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poupador</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Consórcio</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Investimentos</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não associado</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Poupança programada</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>53</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Capital programado</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Recuperação de crédito</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Crédito geral</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Descontos de recebíveis</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Débito automático</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>53</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Consórcios</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>15</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -3519,9 +10759,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D4727A6-FA75-440A-A1A2-9D9D7E36F7C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A760404-96EC-408D-B767-9F429763CE8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAD48D81-5B71-48BB-9388-C7C62C9C85F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A998544-A776-45D0-8A90-9E76D7D88A67}"/>
 </file>